--- a/Chapter 4/Table S4.xlsx
+++ b/Chapter 4/Table S4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\266se\Documents\GitHub\thesis_supplementary\Chapter 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E81B8A-115B-4422-BAF7-35730604C5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EAEAA7-4877-4699-92DC-F47A3F0BF2C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="676">
   <si>
     <t>Mean read depth</t>
   </si>
@@ -1804,18 +1804,6 @@
   </si>
   <si>
     <t>Conflicting_interpretations_of_pathogenicity|_risk_factor</t>
-  </si>
-  <si>
-    <t>GDF1</t>
-  </si>
-  <si>
-    <t>Double-outlet right ventricle :: Right atrial isomerism :: Transposition of great arteries, dextro-looped 3 :: Tetralogy of Fallot</t>
-  </si>
-  <si>
-    <t>ENST00000247005</t>
-  </si>
-  <si>
-    <t>p.Phe276Val/c.826T&gt;G</t>
   </si>
   <si>
     <t>CR2</t>
@@ -2529,25 +2517,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>674</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>673</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>676</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -2576,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J2" s="18">
         <v>7</v>
@@ -2640,7 +2628,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J4" s="18">
         <v>6</v>
@@ -2672,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J5" s="18">
         <v>7</v>
@@ -2704,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J6" s="18">
         <v>2</v>
@@ -2736,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J7" s="18">
         <v>8</v>
@@ -2800,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J9" s="18">
         <v>4</v>
@@ -2832,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J10" s="18">
         <v>6</v>
@@ -2864,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J11" s="18">
         <v>6</v>
@@ -3024,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="18">
         <v>9</v>
@@ -3056,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J17" s="18">
         <v>6</v>
@@ -3088,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J18" s="18">
         <v>0</v>
@@ -48559,7 +48547,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -49788,7 +49776,7 @@
         <v>600574</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>138</v>
@@ -49800,7 +49788,7 @@
         <v>136</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
@@ -53177,70 +53165,76 @@
         <v>16</v>
       </c>
       <c r="B55" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="29">
-        <v>18979699</v>
+        <v>10622266</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>591</v>
+        <v>359</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="29">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G55" s="29">
-        <v>11.764699999999999</v>
+        <v>47.916699999999999</v>
       </c>
       <c r="H55" s="29">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="I55" s="29">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="J55" s="29">
         <v>0</v>
       </c>
       <c r="K55" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="L55" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="M55" s="29">
-        <v>602880</v>
+        <v>601920</v>
       </c>
       <c r="N55" s="29" t="s">
-        <v>592</v>
+        <v>360</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="P55" s="29" t="s">
         <v>59</v>
       </c>
       <c r="Q55" s="29" t="s">
-        <v>593</v>
+        <v>361</v>
       </c>
       <c r="R55" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
+        <v>362</v>
+      </c>
+      <c r="S55" s="29">
+        <v>4.0700001409277298E-4</v>
+      </c>
+      <c r="T55" s="29">
+        <v>0</v>
+      </c>
+      <c r="U55" s="29" t="b">
+        <v>0</v>
+      </c>
       <c r="V55" s="29">
-        <v>27.399999618530298</v>
+        <v>22.600000381469702</v>
       </c>
       <c r="W55" s="29">
-        <v>3.5999999046325701</v>
+        <v>4.5999999046325701</v>
       </c>
       <c r="X55" s="29" t="s">
         <v>62</v>
       </c>
       <c r="Y55" s="29"/>
-      <c r="Z55" s="31"/>
+      <c r="Z55" s="29"/>
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
       <c r="AC55" s="13"/>
@@ -53256,78 +53250,30 @@
       <c r="AM55" s="13"/>
     </row>
     <row r="56" spans="1:39" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="29">
-        <v>20</v>
-      </c>
-      <c r="C56" s="29">
-        <v>10622266</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="29">
-        <v>23</v>
-      </c>
-      <c r="G56" s="29">
-        <v>47.916699999999999</v>
-      </c>
-      <c r="H56" s="29">
-        <v>48</v>
-      </c>
-      <c r="I56" s="29">
-        <v>99</v>
-      </c>
-      <c r="J56" s="29">
-        <v>0</v>
-      </c>
-      <c r="K56" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M56" s="29">
-        <v>601920</v>
-      </c>
-      <c r="N56" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="O56" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="P56" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q56" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="R56" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="S56" s="29">
-        <v>4.0700001409277298E-4</v>
-      </c>
-      <c r="T56" s="29">
-        <v>0</v>
-      </c>
-      <c r="U56" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" s="29">
-        <v>22.600000381469702</v>
-      </c>
-      <c r="W56" s="29">
-        <v>4.5999999046325701</v>
-      </c>
-      <c r="X56" s="29" t="s">
-        <v>62</v>
-      </c>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="31"/>
+      <c r="X56" s="29"/>
       <c r="Y56" s="29"/>
       <c r="Z56" s="29"/>
       <c r="AA56" s="13"/>
@@ -53344,46 +53290,46 @@
       <c r="AL56" s="13"/>
       <c r="AM56" s="13"/>
     </row>
-    <row r="57" spans="1:39" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-      <c r="AK57" s="13"/>
-      <c r="AL57" s="13"/>
-      <c r="AM57" s="13"/>
+    <row r="57" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="27"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
+      <c r="T57" s="23"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="9"/>
     </row>
     <row r="58" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="27"/>
@@ -53400,7 +53346,7 @@
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
-      <c r="O58" s="28"/>
+      <c r="O58" s="23"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
@@ -53412,19 +53358,19 @@
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
       <c r="Z58" s="23"/>
-      <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
-      <c r="AC58" s="9"/>
-      <c r="AD58" s="9"/>
-      <c r="AE58" s="9"/>
-      <c r="AF58" s="9"/>
-      <c r="AG58" s="9"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="9"/>
-      <c r="AJ58" s="9"/>
-      <c r="AK58" s="9"/>
-      <c r="AL58" s="9"/>
-      <c r="AM58" s="9"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
     </row>
     <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="27"/>
@@ -53441,7 +53387,7 @@
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
+      <c r="O59" s="28"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
@@ -53453,19 +53399,19 @@
       <c r="X59" s="23"/>
       <c r="Y59" s="23"/>
       <c r="Z59" s="23"/>
-      <c r="AA59" s="6"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6"/>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6"/>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="9"/>
     </row>
     <row r="60" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="27"/>
@@ -53550,7 +53496,7 @@
       <c r="AM61" s="9"/>
     </row>
     <row r="62" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="27"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
@@ -53564,7 +53510,7 @@
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
       <c r="N62" s="23"/>
-      <c r="O62" s="28"/>
+      <c r="O62" s="23"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
@@ -53576,19 +53522,19 @@
       <c r="X62" s="23"/>
       <c r="Y62" s="23"/>
       <c r="Z62" s="23"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
-      <c r="AI62" s="9"/>
-      <c r="AJ62" s="9"/>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="9"/>
-      <c r="AM62" s="9"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="8"/>
     </row>
     <row r="63" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="23"/>
@@ -53687,7 +53633,7 @@
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
       <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
+      <c r="O65" s="28"/>
       <c r="P65" s="23"/>
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
@@ -53713,33 +53659,33 @@
       <c r="AL65" s="8"/>
       <c r="AM65" s="8"/>
     </row>
-    <row r="66" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
+    <row r="66" spans="1:39" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
       <c r="AB66" s="8"/>
       <c r="AC66" s="8"/>
@@ -53794,47 +53740,6 @@
       <c r="AK67" s="8"/>
       <c r="AL67" s="8"/>
       <c r="AM67" s="8"/>
-    </row>
-    <row r="68" spans="1:39" ht="12.3" x14ac:dyDescent="0.4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="8"/>
-      <c r="AC68" s="8"/>
-      <c r="AD68" s="8"/>
-      <c r="AE68" s="8"/>
-      <c r="AF68" s="8"/>
-      <c r="AG68" s="8"/>
-      <c r="AH68" s="8"/>
-      <c r="AI68" s="8"/>
-      <c r="AJ68" s="8"/>
-      <c r="AK68" s="8"/>
-      <c r="AL68" s="8"/>
-      <c r="AM68" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -59208,7 +59113,7 @@
         <v>207649585</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>45</v>
@@ -59238,7 +59143,7 @@
         <v>120650</v>
       </c>
       <c r="N64" s="25" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="O64" s="25" t="s">
         <v>54</v>
@@ -59247,10 +59152,10 @@
         <v>59</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="R64" s="25" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="S64" s="27">
         <v>1.6612999141216299E-2</v>
@@ -59396,7 +59301,7 @@
         <v>467</v>
       </c>
       <c r="R66" s="25" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="S66" s="27">
         <v>8.1499997759237896E-4</v>
@@ -59472,7 +59377,7 @@
         <v>552</v>
       </c>
       <c r="R67" s="25" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="S67" s="27">
         <v>2.1649999544024502E-3</v>
@@ -59508,7 +59413,7 @@
         <v>103275298</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>45</v>
@@ -59545,10 +59450,10 @@
         <v>59</v>
       </c>
       <c r="Q68" s="25" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="R68" s="25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="S68" s="27">
         <v>2.1649999544024502E-3</v>
@@ -59700,7 +59605,7 @@
         <v>449</v>
       </c>
       <c r="R70" s="25" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="S70" s="27">
         <v>5.03400014713407E-3</v>
@@ -59734,7 +59639,7 @@
         <v>4816829</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>45</v>
@@ -59764,7 +59669,7 @@
         <v>607601</v>
       </c>
       <c r="N71" s="25" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="O71" s="23" t="s">
         <v>138</v>
@@ -59773,10 +59678,10 @@
         <v>59</v>
       </c>
       <c r="Q71" s="25" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="R71" s="25" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="S71" s="27">
         <v>0.17268900573253601</v>
@@ -59848,7 +59753,7 @@
         <v>441</v>
       </c>
       <c r="R72" s="25" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="S72" s="27">
         <v>6.5139997750520698E-3</v>
@@ -59954,7 +59859,7 @@
         <v>42167039</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>45</v>
@@ -59984,7 +59889,7 @@
         <v>603258</v>
       </c>
       <c r="N74" s="25" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="O74" s="23" t="s">
         <v>138</v>
@@ -59993,10 +59898,10 @@
         <v>59</v>
       </c>
       <c r="Q74" s="25" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="R74" s="25" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="S74" s="27">
         <v>0.39356601238250699</v>
@@ -60068,7 +59973,7 @@
         <v>536</v>
       </c>
       <c r="R75" s="25" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="S75" s="27">
         <v>7.93700013309717E-3</v>
@@ -60102,7 +60007,7 @@
         <v>88070885</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>45</v>
@@ -60132,7 +60037,7 @@
         <v>602365</v>
       </c>
       <c r="N76" s="25" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="O76" s="25" t="s">
         <v>54</v>
@@ -60141,10 +60046,10 @@
         <v>59</v>
       </c>
       <c r="Q76" s="25" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="R76" s="25" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="S76" s="27">
         <v>0.30794298648834201</v>
@@ -60178,7 +60083,7 @@
         <v>12720640</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E77" s="25" t="s">
         <v>45</v>
@@ -60215,10 +60120,10 @@
         <v>59</v>
       </c>
       <c r="Q77" s="25" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="R77" s="25" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="S77" s="27">
         <v>5.9014998376369497E-2</v>
@@ -60252,7 +60157,7 @@
         <v>46308719</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E78" s="25" t="s">
         <v>45</v>
@@ -60282,7 +60187,7 @@
         <v>600065</v>
       </c>
       <c r="N78" s="25" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O78" s="25" t="s">
         <v>54</v>
@@ -60291,10 +60196,10 @@
         <v>59</v>
       </c>
       <c r="Q78" s="25" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="R78" s="25" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="S78" s="27">
         <v>6.89399987459183E-3</v>
@@ -60324,7 +60229,7 @@
         <v>207643142</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E79" s="25" t="s">
         <v>45</v>
@@ -60354,7 +60259,7 @@
         <v>120650</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="O79" s="25" t="s">
         <v>54</v>
@@ -60363,10 +60268,10 @@
         <v>59</v>
       </c>
       <c r="Q79" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="R79" s="25" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="S79" s="27">
         <v>1.11980000510812E-2</v>
@@ -60442,7 +60347,7 @@
         <v>580</v>
       </c>
       <c r="R80" s="25" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="S80" s="27">
         <v>2.8490000404417502E-3</v>
@@ -60476,7 +60381,7 @@
         <v>2120979</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E81" s="25" t="s">
         <v>45</v>
@@ -60506,7 +60411,7 @@
         <v>607246</v>
       </c>
       <c r="N81" s="25" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O81" s="25" t="s">
         <v>54</v>
@@ -60515,10 +60420,10 @@
         <v>59</v>
       </c>
       <c r="Q81" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="R81" s="25" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="S81" s="27">
         <v>7.8969001770019503E-2</v>
@@ -60552,7 +60457,7 @@
         <v>2130411</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E82" s="25" t="s">
         <v>45</v>
@@ -60582,7 +60487,7 @@
         <v>607246</v>
       </c>
       <c r="N82" s="25" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O82" s="25" t="s">
         <v>54</v>
@@ -60591,10 +60496,10 @@
         <v>59</v>
       </c>
       <c r="Q82" s="25" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="R82" s="25" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="S82" s="27">
         <v>3.2540000975132002E-3</v>
@@ -60668,7 +60573,7 @@
         <v>385</v>
       </c>
       <c r="R83" s="25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="S83" s="27"/>
       <c r="T83" s="27"/>
@@ -60736,7 +60641,7 @@
         <v>385</v>
       </c>
       <c r="R84" s="25" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="S84" s="27">
         <v>3.6079999990761302E-3</v>
@@ -60888,7 +60793,7 @@
         <v>377</v>
       </c>
       <c r="R86" s="25" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="S86" s="27">
         <v>0.56604099273681596</v>
@@ -60962,7 +60867,7 @@
         <v>471</v>
       </c>
       <c r="R87" s="25" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="S87" s="27">
         <v>8.1200001295655998E-4</v>
@@ -61076,7 +60981,7 @@
         <v>33467575</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>45</v>
@@ -61113,10 +61018,10 @@
         <v>59</v>
       </c>
       <c r="Q89" s="25" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="R89" s="25" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="S89" s="27">
         <v>0.234420001506805</v>
@@ -61150,7 +61055,7 @@
         <v>45710778</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>45</v>
@@ -61180,7 +61085,7 @@
         <v>607358</v>
       </c>
       <c r="N90" s="25" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O90" s="23" t="s">
         <v>138</v>
@@ -61189,10 +61094,10 @@
         <v>59</v>
       </c>
       <c r="Q90" s="25" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="R90" s="25" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="S90" s="27">
         <v>4.0700001409277298E-4</v>
@@ -61222,7 +61127,7 @@
         <v>45713015</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>45</v>
@@ -61252,7 +61157,7 @@
         <v>607358</v>
       </c>
       <c r="N91" s="25" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O91" s="23" t="s">
         <v>138</v>
@@ -61261,10 +61166,10 @@
         <v>59</v>
       </c>
       <c r="Q91" s="25" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="R91" s="25" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="S91" s="27">
         <v>1.0727999731898301E-2</v>
@@ -61298,7 +61203,7 @@
         <v>37271858</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E92" s="25" t="s">
         <v>45</v>
@@ -61328,7 +61233,7 @@
         <v>601488</v>
       </c>
       <c r="N92" s="25" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="O92" s="25" t="s">
         <v>54</v>
@@ -61337,10 +61242,10 @@
         <v>59</v>
       </c>
       <c r="Q92" s="25" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="R92" s="25" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="S92" s="27"/>
       <c r="T92" s="27"/>
@@ -61438,7 +61343,7 @@
         <v>196919980</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E94" s="25" t="s">
         <v>45</v>
@@ -61473,10 +61378,10 @@
         <v>255</v>
       </c>
       <c r="Q94" s="25" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R94" s="25" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="S94" s="27">
         <v>3.2289999071508598E-3</v>
@@ -61510,7 +61415,7 @@
         <v>247587605</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E95" s="25" t="s">
         <v>45</v>
@@ -61540,7 +61445,7 @@
         <v>606416</v>
       </c>
       <c r="N95" s="25" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="O95" s="25" t="s">
         <v>151</v>
@@ -61549,10 +61454,10 @@
         <v>59</v>
       </c>
       <c r="Q95" s="25" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="R95" s="25" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="S95" s="27"/>
       <c r="T95" s="27"/>
@@ -61580,7 +61485,7 @@
         <v>11000580</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E96" s="25" t="s">
         <v>45</v>
@@ -61610,7 +61515,7 @@
         <v>600005</v>
       </c>
       <c r="N96" s="25" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="O96" s="25" t="s">
         <v>54</v>
@@ -61619,10 +61524,10 @@
         <v>59</v>
       </c>
       <c r="Q96" s="25" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="R96" s="25" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="S96" s="27">
         <v>1.2810000218451001E-2</v>
@@ -61696,7 +61601,7 @@
         <v>449</v>
       </c>
       <c r="R97" s="25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="S97" s="27">
         <v>4.7933001071214697E-2</v>
@@ -61732,7 +61637,7 @@
         <v>26732438</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E98" s="25" t="s">
         <v>45</v>
@@ -61762,7 +61667,7 @@
         <v>611672</v>
       </c>
       <c r="N98" s="25" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="O98" s="25" t="s">
         <v>54</v>
@@ -61771,10 +61676,10 @@
         <v>59</v>
       </c>
       <c r="Q98" s="25" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="R98" s="25" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="S98" s="27">
         <v>1.2580000329762699E-3</v>
@@ -61808,7 +61713,7 @@
         <v>10472598</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E99" s="25" t="s">
         <v>45</v>
@@ -61838,7 +61743,7 @@
         <v>176941</v>
       </c>
       <c r="N99" s="25" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O99" s="25" t="s">
         <v>54</v>
@@ -61847,10 +61752,10 @@
         <v>59</v>
       </c>
       <c r="Q99" s="25" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="R99" s="25" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="S99" s="27">
         <v>2.88939997553825E-2</v>

--- a/Chapter 4/Table S4.xlsx
+++ b/Chapter 4/Table S4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\266se\Documents\GitHub\thesis_supplementary\Chapter 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BE8CFE-7571-477C-AAAC-9E33383EB94C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A93544E-5405-48B0-A978-EBBF888D5B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2019,14 +2019,7 @@
     <t>p.Ala264Asp/c.791C&gt;A</t>
   </si>
   <si>
-    <t>GATK-HC_all variants</t>
-  </si>
-  <si>
     <t>High/Moderate impact variants</t>
-  </si>
-  <si>
-    <t>AF &lt; 1% &amp; 
-Hom &lt;= 5 variants</t>
   </si>
   <si>
     <t>DP &gt;= 5 &amp; 
@@ -2053,6 +2046,13 @@
   <si>
     <t xml:space="preserve">
 655373</t>
+  </si>
+  <si>
+    <t>Population AF &lt;= 1% &amp; Hom &lt;= 5 variants</t>
+  </si>
+  <si>
+    <t>GATK-HC_all variants
+(exome regions)</t>
   </si>
 </sst>
 </file>
@@ -2488,7 +2488,9 @@
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="5" customWidth="1"/>
-    <col min="2" max="10" width="15.609375" style="5" customWidth="1"/>
+    <col min="2" max="5" width="15.609375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="15.609375" style="5" customWidth="1"/>
     <col min="11" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
@@ -2503,25 +2505,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>666</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>667</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -6031,16 +6033,16 @@
     <col min="13" max="13" width="7.71875" style="5" customWidth="1"/>
     <col min="14" max="14" width="50.609375" style="5" customWidth="1"/>
     <col min="15" max="15" width="20.609375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.609375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="19.609375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.609375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.609375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.609375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.609375" style="5" customWidth="1"/>
     <col min="19" max="19" width="14.5546875" style="5" customWidth="1"/>
     <col min="20" max="20" width="14.44140625" style="5" customWidth="1"/>
     <col min="21" max="21" width="14" style="5" customWidth="1"/>
     <col min="22" max="22" width="10.27734375" style="5" customWidth="1"/>
     <col min="23" max="23" width="11" style="5" customWidth="1"/>
     <col min="24" max="24" width="12.109375" style="5" customWidth="1"/>
-    <col min="25" max="25" width="17.609375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="18.609375" style="5" customWidth="1"/>
     <col min="26" max="26" width="9.0546875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="39" width="16" style="5" customWidth="1"/>
     <col min="40" max="16384" width="14.44140625" style="5"/>
@@ -6093,13 +6095,13 @@
         <v>43</v>
       </c>
       <c r="P1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>36</v>
@@ -6186,13 +6188,13 @@
         <v>54</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>51</v>
       </c>
       <c r="S2" s="23">
         <v>1.4894999563694E-2</v>
@@ -6279,13 +6281,13 @@
         <v>54</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="S3" s="23">
         <v>0.12277200100000001</v>
@@ -6372,13 +6374,13 @@
         <v>54</v>
       </c>
       <c r="P4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="S4" s="23">
         <v>6.0605000999999999E-2</v>
@@ -6463,13 +6465,13 @@
         <v>54</v>
       </c>
       <c r="P5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>73</v>
       </c>
       <c r="S5" s="23">
         <v>6.6211000000000006E-2</v>
@@ -6554,13 +6556,13 @@
         <v>54</v>
       </c>
       <c r="P6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="S6" s="23">
         <v>0.26076599955558799</v>
@@ -6645,13 +6647,13 @@
         <v>54</v>
       </c>
       <c r="P7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="S7" s="23">
         <v>0.52349299199999999</v>
@@ -6734,13 +6736,13 @@
         <v>54</v>
       </c>
       <c r="P8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="S8" s="23">
         <v>0.21430499851703599</v>
@@ -6827,13 +6829,13 @@
         <v>54</v>
       </c>
       <c r="P9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="R9" s="25" t="s">
         <v>92</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="S9" s="25">
         <v>8.1599998520687201E-4</v>
@@ -6920,13 +6922,13 @@
         <v>54</v>
       </c>
       <c r="P10" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="R10" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="S10" s="25">
         <v>0.148641</v>
@@ -7013,13 +7015,13 @@
         <v>54</v>
       </c>
       <c r="P11" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>102</v>
       </c>
       <c r="S11" s="25">
         <v>8.9339999999999992E-3</v>
@@ -7106,13 +7108,13 @@
         <v>107</v>
       </c>
       <c r="P12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>106</v>
       </c>
       <c r="S12" s="25">
         <v>8.4069999999999995E-3</v>
@@ -7197,13 +7199,13 @@
         <v>54</v>
       </c>
       <c r="P13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>83</v>
       </c>
       <c r="S13" s="23">
         <v>0.52349299199999999</v>
@@ -7286,13 +7288,13 @@
         <v>112</v>
       </c>
       <c r="P14" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="S14" s="23">
         <v>5.868E-3</v>
@@ -7379,13 +7381,13 @@
         <v>107</v>
       </c>
       <c r="P15" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="S15" s="23">
         <v>4.9493000000000002E-2</v>
@@ -7468,13 +7470,13 @@
         <v>138</v>
       </c>
       <c r="P16" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="R16" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>595</v>
       </c>
       <c r="S16" s="27">
         <v>5.03400014713407E-3</v>
@@ -7548,13 +7550,13 @@
         <v>54</v>
       </c>
       <c r="P17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="S17" s="23">
         <v>3.2120998948812499E-2</v>
@@ -7641,13 +7643,13 @@
         <v>54</v>
       </c>
       <c r="P18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>121</v>
       </c>
       <c r="S18" s="23">
         <v>5.3099999204278001E-3</v>
@@ -7734,13 +7736,13 @@
         <v>54</v>
       </c>
       <c r="P19" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" s="23" t="s">
         <v>125</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>127</v>
       </c>
       <c r="S19" s="23">
         <v>2.03100009821355E-3</v>
@@ -7825,13 +7827,13 @@
         <v>54</v>
       </c>
       <c r="P20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="S20" s="23">
         <v>0.36881300806999201</v>
@@ -7914,13 +7916,13 @@
         <v>138</v>
       </c>
       <c r="P21" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>137</v>
       </c>
       <c r="S21" s="23">
         <v>0</v>
@@ -8007,13 +8009,13 @@
         <v>54</v>
       </c>
       <c r="P22" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="R22" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="S22" s="25">
         <v>4.0980000000000003E-2</v>
@@ -8100,13 +8102,13 @@
         <v>54</v>
       </c>
       <c r="P23" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q23" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="S23" s="25">
         <v>0.39559100000000003</v>
@@ -8193,13 +8195,13 @@
         <v>151</v>
       </c>
       <c r="P24" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="R24" s="25" t="s">
         <v>59</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="S24" s="25">
         <v>8.6013000000000006E-2</v>
@@ -8284,13 +8286,13 @@
         <v>54</v>
       </c>
       <c r="P25" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="R25" s="25" t="s">
         <v>49</v>
-      </c>
-      <c r="Q25" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>155</v>
       </c>
       <c r="S25" s="25">
         <v>7.6007000000000005E-2</v>
@@ -8377,13 +8379,13 @@
         <v>54</v>
       </c>
       <c r="P26" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="R26" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>159</v>
       </c>
       <c r="S26" s="23">
         <v>4.4369000941514997E-2</v>
@@ -48634,9 +48636,9 @@
     <col min="13" max="13" width="7.71875" style="5" customWidth="1"/>
     <col min="14" max="14" width="50.609375" style="5" customWidth="1"/>
     <col min="15" max="15" width="20.609375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.609375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="19.609375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.609375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.609375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.609375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.609375" style="5" customWidth="1"/>
     <col min="19" max="19" width="14.5546875" style="5" customWidth="1"/>
     <col min="20" max="20" width="14.44140625" style="5" customWidth="1"/>
     <col min="21" max="21" width="14" style="5" customWidth="1"/>
@@ -48695,13 +48697,13 @@
         <v>43</v>
       </c>
       <c r="P1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>36</v>
@@ -48788,13 +48790,13 @@
         <v>151</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>163</v>
       </c>
       <c r="S2" s="23">
         <v>2.0300000000000001E-3</v>
@@ -48861,13 +48863,13 @@
         <v>151</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>167</v>
       </c>
       <c r="S3" s="23">
         <v>2.036E-3</v>
@@ -48934,13 +48936,13 @@
         <v>54</v>
       </c>
       <c r="P4" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="S4" s="23">
         <v>0.150783002</v>
@@ -49011,13 +49013,13 @@
         <v>138</v>
       </c>
       <c r="P5" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>175</v>
       </c>
       <c r="S5" s="23">
         <v>9.0410000000000004E-3</v>
@@ -49092,13 +49094,13 @@
         <v>151</v>
       </c>
       <c r="P6" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="S6" s="23">
         <v>4.352E-3</v>
@@ -49173,13 +49175,13 @@
         <v>138</v>
       </c>
       <c r="P7" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="S7" s="23">
         <v>1.856E-3</v>
@@ -49250,13 +49252,13 @@
         <v>54</v>
       </c>
       <c r="P8" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -49321,13 +49323,13 @@
         <v>54</v>
       </c>
       <c r="P9" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>192</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>194</v>
       </c>
       <c r="S9" s="23">
         <v>8.7550000000000006E-3</v>
@@ -49396,13 +49398,13 @@
         <v>54</v>
       </c>
       <c r="P10" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>198</v>
       </c>
       <c r="S10" s="23">
         <v>0</v>
@@ -49471,13 +49473,13 @@
         <v>54</v>
       </c>
       <c r="P11" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="S11" s="23">
         <v>1.232E-3</v>
@@ -49548,13 +49550,13 @@
         <v>54</v>
       </c>
       <c r="P12" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
@@ -49617,13 +49619,13 @@
         <v>138</v>
       </c>
       <c r="P13" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>213</v>
       </c>
       <c r="S13" s="23">
         <v>6.9109999999999996E-3</v>
@@ -49698,13 +49700,13 @@
         <v>54</v>
       </c>
       <c r="P14" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>218</v>
       </c>
       <c r="S14" s="23">
         <v>2.2060000000000001E-3</v>
@@ -49771,13 +49773,13 @@
         <v>54</v>
       </c>
       <c r="P15" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="R15" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>222</v>
       </c>
       <c r="S15" s="23">
         <v>4.0700000000000003E-4</v>
@@ -49842,19 +49844,19 @@
         <v>600574</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="O16" s="23" t="s">
         <v>138</v>
       </c>
       <c r="P16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="R16" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>670</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="23"/>
@@ -49919,13 +49921,13 @@
         <v>54</v>
       </c>
       <c r="P17" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="R17" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>226</v>
       </c>
       <c r="S17" s="23">
         <v>2.4369999999999999E-3</v>
@@ -50004,13 +50006,13 @@
         <v>231</v>
       </c>
       <c r="P18" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="R18" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>230</v>
       </c>
       <c r="S18" s="23">
         <v>1.90599996130913E-3</v>
@@ -50091,13 +50093,13 @@
         <v>54</v>
       </c>
       <c r="P19" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="R19" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>235</v>
       </c>
       <c r="S19" s="23">
         <v>0.39398199299999997</v>
@@ -50180,13 +50182,13 @@
         <v>54</v>
       </c>
       <c r="P20" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>236</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -50263,13 +50265,13 @@
         <v>138</v>
       </c>
       <c r="P21" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>240</v>
       </c>
       <c r="S21" s="23">
         <v>4.4869999999999997E-3</v>
@@ -50352,13 +50354,13 @@
         <v>54</v>
       </c>
       <c r="P22" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="R22" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>244</v>
       </c>
       <c r="S22" s="23">
         <v>5.9250000999999997E-2</v>
@@ -50437,13 +50439,13 @@
         <v>54</v>
       </c>
       <c r="P23" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="R23" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>248</v>
       </c>
       <c r="S23" s="23">
         <v>4.1485999000000003E-2</v>
@@ -50528,13 +50530,13 @@
         <v>138</v>
       </c>
       <c r="P24" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="R24" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>252</v>
       </c>
       <c r="S24" s="23">
         <v>4.06E-4</v>
@@ -50617,13 +50619,13 @@
         <v>54</v>
       </c>
       <c r="P25" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="R25" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>257</v>
       </c>
       <c r="S25" s="23">
         <v>3.2299999999999998E-3</v>
@@ -50706,13 +50708,13 @@
         <v>54</v>
       </c>
       <c r="P26" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="R26" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>261</v>
       </c>
       <c r="S26" s="23">
         <v>0.23805400729179399</v>
@@ -50799,13 +50801,13 @@
         <v>151</v>
       </c>
       <c r="P27" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="R27" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>265</v>
       </c>
       <c r="S27" s="23">
         <v>2.0569999999999998E-3</v>
@@ -50888,13 +50890,13 @@
         <v>54</v>
       </c>
       <c r="P28" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="R28" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>269</v>
       </c>
       <c r="S28" s="23">
         <v>0.13492199799999999</v>
@@ -50977,13 +50979,13 @@
         <v>54</v>
       </c>
       <c r="P29" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="R29" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
@@ -51058,13 +51060,13 @@
         <v>54</v>
       </c>
       <c r="P30" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="R30" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="S30" s="23">
         <v>6.5690000000000002E-3</v>
@@ -51147,13 +51149,13 @@
         <v>54</v>
       </c>
       <c r="P31" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="R31" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>281</v>
       </c>
       <c r="S31" s="23">
         <v>2.8609999999999998E-3</v>
@@ -51234,13 +51236,13 @@
         <v>54</v>
       </c>
       <c r="P32" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="R32" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>286</v>
       </c>
       <c r="S32" s="23">
         <v>5.8781001999999999E-2</v>
@@ -51325,13 +51327,13 @@
         <v>54</v>
       </c>
       <c r="P33" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="R33" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>290</v>
       </c>
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
@@ -51406,13 +51408,13 @@
         <v>54</v>
       </c>
       <c r="P34" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="R34" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q34" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="R34" s="23" t="s">
-        <v>291</v>
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
@@ -51489,13 +51491,13 @@
         <v>54</v>
       </c>
       <c r="P35" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="R35" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="R35" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="S35" s="23">
         <v>1.6650001000000001E-2</v>
@@ -51582,13 +51584,13 @@
         <v>54</v>
       </c>
       <c r="P36" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="R36" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="R36" s="23" t="s">
-        <v>296</v>
       </c>
       <c r="S36" s="23">
         <v>4.7894999000000001E-2</v>
@@ -51671,13 +51673,13 @@
         <v>138</v>
       </c>
       <c r="P37" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="R37" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q37" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>300</v>
       </c>
       <c r="S37" s="23">
         <v>1.8484E-2</v>
@@ -51758,13 +51760,13 @@
         <v>54</v>
       </c>
       <c r="P38" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="R38" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q38" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="R38" s="23" t="s">
-        <v>304</v>
       </c>
       <c r="S38" s="23">
         <v>6.7456998000000004E-2</v>
@@ -51847,13 +51849,13 @@
         <v>138</v>
       </c>
       <c r="P39" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="R39" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>308</v>
       </c>
       <c r="S39" s="23">
         <v>2.3112998999999999E-2</v>
@@ -51940,13 +51942,13 @@
         <v>54</v>
       </c>
       <c r="P40" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="R40" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>313</v>
       </c>
       <c r="S40" s="23">
         <v>1.3929999999999999E-3</v>
@@ -52029,13 +52031,13 @@
         <v>54</v>
       </c>
       <c r="P41" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="R41" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q41" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="R41" s="23" t="s">
-        <v>317</v>
       </c>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -52112,13 +52114,13 @@
         <v>231</v>
       </c>
       <c r="P42" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="R42" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q42" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="R42" s="23" t="s">
-        <v>321</v>
       </c>
       <c r="S42" s="23"/>
       <c r="T42" s="23"/>
@@ -52195,13 +52197,13 @@
         <v>138</v>
       </c>
       <c r="P43" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="R43" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="R43" s="23" t="s">
-        <v>325</v>
       </c>
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
@@ -52276,13 +52278,13 @@
         <v>54</v>
       </c>
       <c r="P44" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="R44" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="R44" s="23" t="s">
-        <v>329</v>
       </c>
       <c r="S44" s="23">
         <v>3.4278999999999997E-2</v>
@@ -52369,13 +52371,13 @@
         <v>54</v>
       </c>
       <c r="P45" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="R45" s="23" t="s">
         <v>49</v>
-      </c>
-      <c r="Q45" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="R45" s="23" t="s">
-        <v>333</v>
       </c>
       <c r="S45" s="23">
         <v>0.26256099300000002</v>
@@ -52454,13 +52456,13 @@
         <v>54</v>
       </c>
       <c r="P46" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q46" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="R46" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q46" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="R46" s="23" t="s">
-        <v>337</v>
       </c>
       <c r="S46" s="23">
         <v>3.1757999000000002E-2</v>
@@ -52547,13 +52549,13 @@
         <v>54</v>
       </c>
       <c r="P47" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="R47" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q47" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="R47" s="23" t="s">
-        <v>341</v>
       </c>
       <c r="S47" s="23">
         <v>2.176E-3</v>
@@ -52636,13 +52638,13 @@
         <v>54</v>
       </c>
       <c r="P48" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="R48" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="R48" s="27" t="s">
-        <v>345</v>
       </c>
       <c r="S48" s="27">
         <v>1.7677999999999999E-2</v>
@@ -52729,13 +52731,13 @@
         <v>138</v>
       </c>
       <c r="P49" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="R49" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>346</v>
       </c>
       <c r="S49" s="27">
         <v>0</v>
@@ -52814,13 +52816,13 @@
         <v>54</v>
       </c>
       <c r="P50" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="R50" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="R50" s="27" t="s">
-        <v>350</v>
       </c>
       <c r="S50" s="27">
         <v>0.13278600600000001</v>
@@ -52905,13 +52907,13 @@
         <v>54</v>
       </c>
       <c r="P51" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="R51" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="R51" s="27" t="s">
-        <v>354</v>
       </c>
       <c r="S51" s="27">
         <v>5.4829999999999997E-2</v>
@@ -52998,13 +53000,13 @@
         <v>138</v>
       </c>
       <c r="P52" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="R52" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="R52" s="27" t="s">
-        <v>358</v>
       </c>
       <c r="S52" s="27">
         <v>0.17909599800000001</v>
@@ -53087,13 +53089,13 @@
         <v>138</v>
       </c>
       <c r="P53" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>137</v>
       </c>
       <c r="S53" s="27">
         <v>0</v>
@@ -53180,13 +53182,13 @@
         <v>54</v>
       </c>
       <c r="P54" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>146</v>
       </c>
       <c r="S54" s="27">
         <v>0.39559100000000003</v>
@@ -53273,13 +53275,13 @@
         <v>151</v>
       </c>
       <c r="P55" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>362</v>
       </c>
       <c r="S55" s="27">
         <v>4.0700001409277298E-4</v>
@@ -53840,9 +53842,9 @@
     <col min="13" max="13" width="7.71875" style="5" customWidth="1"/>
     <col min="14" max="14" width="50.609375" style="5" customWidth="1"/>
     <col min="15" max="15" width="20.609375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.609375" style="5" customWidth="1"/>
-    <col min="17" max="17" width="19.609375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.609375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="19.609375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.609375" style="5" customWidth="1"/>
+    <col min="18" max="18" width="15.609375" style="5" customWidth="1"/>
     <col min="19" max="19" width="14.5546875" style="7" customWidth="1"/>
     <col min="20" max="20" width="14.44140625" style="7" customWidth="1"/>
     <col min="21" max="21" width="14" style="7" customWidth="1"/>
@@ -53900,13 +53902,13 @@
         <v>43</v>
       </c>
       <c r="P1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="S1" s="22" t="s">
         <v>36</v>
@@ -53993,13 +53995,13 @@
         <v>54</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>366</v>
       </c>
       <c r="S2" s="23">
         <v>0.40603798600000002</v>
@@ -54082,13 +54084,13 @@
         <v>54</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>370</v>
       </c>
       <c r="S3" s="23">
         <v>4.0700000000000003E-4</v>
@@ -54167,13 +54169,13 @@
         <v>54</v>
       </c>
       <c r="P4" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="R4" s="23" t="s">
-        <v>374</v>
       </c>
       <c r="S4" s="23">
         <v>8.2635999000000002E-2</v>
@@ -54260,13 +54262,13 @@
         <v>54</v>
       </c>
       <c r="P5" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>378</v>
       </c>
       <c r="S5" s="23">
         <v>5.8587E-2</v>
@@ -54353,13 +54355,13 @@
         <v>54</v>
       </c>
       <c r="P6" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="R6" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q6" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="R6" s="23" t="s">
-        <v>382</v>
       </c>
       <c r="S6" s="23">
         <v>8.3400000000000002E-3</v>
@@ -54442,13 +54444,13 @@
         <v>54</v>
       </c>
       <c r="P7" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>386</v>
       </c>
       <c r="S7" s="23">
         <v>0.12124700099999999</v>
@@ -54531,13 +54533,13 @@
         <v>54</v>
       </c>
       <c r="P8" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q8" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>390</v>
       </c>
       <c r="S8" s="23">
         <v>7.7740997000000006E-2</v>
@@ -54624,13 +54626,13 @@
         <v>54</v>
       </c>
       <c r="P9" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="R9" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>394</v>
       </c>
       <c r="S9" s="23">
         <v>0.20205000000000001</v>
@@ -54711,13 +54713,13 @@
         <v>54</v>
       </c>
       <c r="P10" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q10" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="R10" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>398</v>
       </c>
       <c r="S10" s="23">
         <v>1.282E-2</v>
@@ -54796,13 +54798,13 @@
         <v>138</v>
       </c>
       <c r="P11" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
@@ -54877,13 +54879,13 @@
         <v>54</v>
       </c>
       <c r="P12" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="R12" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>406</v>
       </c>
       <c r="S12" s="23">
         <v>0.182178006</v>
@@ -54966,13 +54968,13 @@
         <v>54</v>
       </c>
       <c r="P13" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="R13" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>410</v>
       </c>
       <c r="S13" s="23">
         <v>8.3699999999999996E-4</v>
@@ -55055,13 +55057,13 @@
         <v>151</v>
       </c>
       <c r="P14" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="R14" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>414</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
@@ -55138,13 +55140,13 @@
         <v>138</v>
       </c>
       <c r="P15" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="R15" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>418</v>
       </c>
       <c r="S15" s="23">
         <v>9.0189999999999992E-3</v>
@@ -55229,13 +55231,13 @@
         <v>54</v>
       </c>
       <c r="P16" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="R16" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>422</v>
       </c>
       <c r="S16" s="23">
         <v>3.4320001000000003E-2</v>
@@ -55314,13 +55316,13 @@
         <v>54</v>
       </c>
       <c r="P17" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="R17" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="23"/>
@@ -55397,13 +55399,13 @@
         <v>54</v>
       </c>
       <c r="P18" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="R18" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>426</v>
       </c>
       <c r="S18" s="23">
         <v>2.4173001E-2</v>
@@ -55486,13 +55488,13 @@
         <v>54</v>
       </c>
       <c r="P19" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="R19" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>430</v>
       </c>
       <c r="S19" s="23">
         <v>2.7810000000000001E-2</v>
@@ -55575,13 +55577,13 @@
         <v>54</v>
       </c>
       <c r="P20" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q20" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>434</v>
       </c>
       <c r="S20" s="23">
         <v>1.3351E-2</v>
@@ -55662,13 +55664,13 @@
         <v>54</v>
       </c>
       <c r="P21" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="R21" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q21" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>437</v>
       </c>
       <c r="S21" s="23">
         <v>0.39449098700000002</v>
@@ -55747,13 +55749,13 @@
         <v>54</v>
       </c>
       <c r="P22" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="R22" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q22" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>441</v>
       </c>
       <c r="S22" s="23">
         <v>0.106771</v>
@@ -55836,13 +55838,13 @@
         <v>138</v>
       </c>
       <c r="P23" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="R23" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="R23" s="23" t="s">
-        <v>445</v>
       </c>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
@@ -55917,13 +55919,13 @@
         <v>54</v>
       </c>
       <c r="P24" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="R24" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>448</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>449</v>
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
@@ -56000,13 +56002,13 @@
         <v>54</v>
       </c>
       <c r="P25" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="R25" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="R25" s="23" t="s">
-        <v>453</v>
       </c>
       <c r="S25" s="23">
         <v>7.4047998000000004E-2</v>
@@ -56085,13 +56087,13 @@
         <v>54</v>
       </c>
       <c r="P26" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="R26" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>454</v>
       </c>
       <c r="S26" s="23">
         <v>0.11835899900000001</v>
@@ -56178,13 +56180,13 @@
         <v>54</v>
       </c>
       <c r="P27" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="R27" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>458</v>
       </c>
       <c r="S27" s="23">
         <v>1.7321E-2</v>
@@ -56271,13 +56273,13 @@
         <v>54</v>
       </c>
       <c r="P28" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="R28" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>459</v>
       </c>
       <c r="S28" s="23">
         <v>7.2199999999999999E-4</v>
@@ -56358,13 +56360,13 @@
         <v>54</v>
       </c>
       <c r="P29" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="R29" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>463</v>
       </c>
       <c r="S29" s="23">
         <v>4.0159999999999996E-3</v>
@@ -56445,13 +56447,13 @@
         <v>54</v>
       </c>
       <c r="P30" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="R30" s="23" t="s">
         <v>465</v>
-      </c>
-      <c r="Q30" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>467</v>
       </c>
       <c r="S30" s="23">
         <v>1.3209999999999999E-3</v>
@@ -56534,13 +56536,13 @@
         <v>151</v>
       </c>
       <c r="P31" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q31" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="R31" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>471</v>
       </c>
       <c r="S31" s="23">
         <v>7.2199999999999999E-4</v>
@@ -56623,13 +56625,13 @@
         <v>54</v>
       </c>
       <c r="P32" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="R32" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="R32" s="23" t="s">
-        <v>472</v>
       </c>
       <c r="S32" s="23">
         <v>8.1400000000000005E-4</v>
@@ -56712,13 +56714,13 @@
         <v>54</v>
       </c>
       <c r="P33" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q33" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="R33" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q33" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="R33" s="23" t="s">
-        <v>476</v>
       </c>
       <c r="S33" s="23">
         <v>2.9944001000000001E-2</v>
@@ -56799,13 +56801,13 @@
         <v>54</v>
       </c>
       <c r="P34" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q34" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="R34" s="23" t="s">
         <v>479</v>
-      </c>
-      <c r="Q34" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="R34" s="23" t="s">
-        <v>481</v>
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
@@ -56880,13 +56882,13 @@
         <v>54</v>
       </c>
       <c r="P35" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q35" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="R35" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="R35" s="23" t="s">
-        <v>484</v>
       </c>
       <c r="S35" s="23">
         <v>1.5791999000000001E-2</v>
@@ -56965,13 +56967,13 @@
         <v>54</v>
       </c>
       <c r="P36" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="R36" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="R36" s="23" t="s">
-        <v>488</v>
       </c>
       <c r="S36" s="23">
         <v>2.2043999000000002E-2</v>
@@ -57056,13 +57058,13 @@
         <v>54</v>
       </c>
       <c r="P37" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q37" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="R37" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q37" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>492</v>
       </c>
       <c r="S37" s="23">
         <v>0.112921998</v>
@@ -57149,13 +57151,13 @@
         <v>138</v>
       </c>
       <c r="P38" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q38" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="R38" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q38" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="R38" s="23" t="s">
-        <v>496</v>
       </c>
       <c r="S38" s="23">
         <v>6.607E-3</v>
@@ -57234,13 +57236,13 @@
         <v>54</v>
       </c>
       <c r="P39" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="R39" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q39" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="R39" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="S39" s="23">
         <v>0.15029400600000001</v>
@@ -57323,13 +57325,13 @@
         <v>507</v>
       </c>
       <c r="P40" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q40" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="R40" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q40" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="R40" s="23" t="s">
-        <v>506</v>
       </c>
       <c r="S40" s="23">
         <v>0.33713799700000002</v>
@@ -57410,13 +57412,13 @@
         <v>54</v>
       </c>
       <c r="P41" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q41" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="R41" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q41" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="R41" s="23" t="s">
-        <v>209</v>
       </c>
       <c r="S41" s="23"/>
       <c r="T41" s="23"/>
@@ -57491,13 +57493,13 @@
         <v>151</v>
       </c>
       <c r="P42" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q42" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="R42" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q42" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="R42" s="23" t="s">
-        <v>511</v>
       </c>
       <c r="S42" s="23">
         <v>2.4450000000000001E-3</v>
@@ -57521,7 +57523,7 @@
         <v>176</v>
       </c>
       <c r="Z42" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
@@ -57584,13 +57586,13 @@
         <v>151</v>
       </c>
       <c r="P43" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q43" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="R43" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="R43" s="23" t="s">
-        <v>515</v>
       </c>
       <c r="S43" s="23">
         <v>2.2750000000000001E-3</v>
@@ -57673,13 +57675,13 @@
         <v>54</v>
       </c>
       <c r="P44" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="R44" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="R44" s="23" t="s">
-        <v>218</v>
       </c>
       <c r="S44" s="23">
         <v>2.2060000000000001E-3</v>
@@ -57758,13 +57760,13 @@
         <v>54</v>
       </c>
       <c r="P45" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q45" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="R45" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q45" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="R45" s="23" t="s">
-        <v>519</v>
       </c>
       <c r="S45" s="23">
         <v>6.757E-3</v>
@@ -57847,13 +57849,13 @@
         <v>151</v>
       </c>
       <c r="P46" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q46" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="R46" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="Q46" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="R46" s="23" t="s">
-        <v>523</v>
       </c>
       <c r="S46" s="23">
         <v>4.7800000000000002E-4</v>
@@ -57934,13 +57936,13 @@
         <v>151</v>
       </c>
       <c r="P47" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="R47" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q47" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="R47" s="24" t="s">
-        <v>528</v>
       </c>
       <c r="S47" s="25">
         <v>2.1770000457763698E-3</v>
@@ -58008,13 +58010,13 @@
         <v>138</v>
       </c>
       <c r="P48" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="R48" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q48" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="R48" s="24" t="s">
-        <v>532</v>
       </c>
       <c r="S48" s="25">
         <v>1.6323000192642202E-2</v>
@@ -58082,13 +58084,13 @@
         <v>151</v>
       </c>
       <c r="P49" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="R49" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q49" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="R49" s="24" t="s">
-        <v>536</v>
       </c>
       <c r="S49" s="25">
         <v>4.0600000647827999E-4</v>
@@ -58158,13 +58160,13 @@
         <v>54</v>
       </c>
       <c r="P50" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="R50" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q50" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="R50" s="24" t="s">
-        <v>540</v>
       </c>
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
@@ -58228,13 +58230,13 @@
         <v>54</v>
       </c>
       <c r="P51" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q51" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="R51" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q51" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="R51" s="24" t="s">
-        <v>544</v>
       </c>
       <c r="S51" s="25">
         <v>4.0700001409277298E-4</v>
@@ -58302,13 +58304,13 @@
         <v>54</v>
       </c>
       <c r="P52" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="R52" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q52" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="R52" s="24" t="s">
-        <v>551</v>
       </c>
       <c r="S52" s="25">
         <v>5.7140000164508799E-2</v>
@@ -58376,13 +58378,13 @@
         <v>54</v>
       </c>
       <c r="P53" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="R53" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q53" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="R53" s="24" t="s">
-        <v>555</v>
       </c>
       <c r="S53" s="25">
         <v>6.8200001260265697E-4</v>
@@ -58446,13 +58448,13 @@
         <v>54</v>
       </c>
       <c r="P54" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="R54" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q54" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="R54" s="24" t="s">
-        <v>558</v>
       </c>
       <c r="S54" s="25">
         <v>0.48772999644279502</v>
@@ -58520,13 +58522,13 @@
         <v>54</v>
       </c>
       <c r="P55" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q55" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="R55" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q55" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="R55" s="24" t="s">
-        <v>562</v>
       </c>
       <c r="S55" s="25">
         <v>1.65989995002747E-2</v>
@@ -58596,13 +58598,13 @@
         <v>54</v>
       </c>
       <c r="P56" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q56" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="R56" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q56" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="R56" s="24" t="s">
-        <v>566</v>
       </c>
       <c r="S56" s="25"/>
       <c r="T56" s="25"/>
@@ -58666,13 +58668,13 @@
         <v>54</v>
       </c>
       <c r="P57" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="R57" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="Q57" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="R57" s="24" t="s">
-        <v>568</v>
       </c>
       <c r="S57" s="25"/>
       <c r="T57" s="25"/>
@@ -58734,13 +58736,13 @@
         <v>54</v>
       </c>
       <c r="P58" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q58" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="R58" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q58" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="R58" s="24" t="s">
-        <v>572</v>
       </c>
       <c r="S58" s="25">
         <v>0.218781992793083</v>
@@ -58810,13 +58812,13 @@
         <v>54</v>
       </c>
       <c r="P59" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q59" s="24" t="s">
+        <v>579</v>
+      </c>
+      <c r="R59" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q59" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="R59" s="24" t="s">
-        <v>579</v>
       </c>
       <c r="S59" s="25">
         <v>4.8721000552177401E-2</v>
@@ -58886,13 +58888,13 @@
         <v>54</v>
       </c>
       <c r="P60" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q60" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="R60" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q60" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="R60" s="24" t="s">
-        <v>580</v>
       </c>
       <c r="S60" s="25">
         <v>2.0927999168634401E-2</v>
@@ -58966,13 +58968,13 @@
         <v>54</v>
       </c>
       <c r="P61" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q61" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="R61" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q61" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="R61" s="24" t="s">
-        <v>374</v>
       </c>
       <c r="S61" s="25">
         <v>8.2635998725891099E-2</v>
@@ -59046,13 +59048,13 @@
         <v>138</v>
       </c>
       <c r="P62" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q62" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="R62" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q62" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="R62" s="24" t="s">
-        <v>584</v>
       </c>
       <c r="S62" s="25">
         <v>0.34626299142837502</v>
@@ -59126,13 +59128,13 @@
         <v>54</v>
       </c>
       <c r="P63" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q63" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="R63" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q63" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="R63" s="24" t="s">
-        <v>589</v>
       </c>
       <c r="S63" s="25">
         <v>1.6612999141216299E-2</v>
@@ -59200,13 +59202,13 @@
         <v>54</v>
       </c>
       <c r="P64" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q64" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="R64" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q64" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="R64" s="24" t="s">
-        <v>226</v>
       </c>
       <c r="S64" s="25">
         <v>2.4369999300688501E-3</v>
@@ -59272,13 +59274,13 @@
         <v>54</v>
       </c>
       <c r="P65" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q65" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="R65" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q65" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="R65" s="24" t="s">
-        <v>590</v>
       </c>
       <c r="S65" s="25">
         <v>8.1499997759237896E-4</v>
@@ -59348,13 +59350,13 @@
         <v>54</v>
       </c>
       <c r="P66" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q66" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="R66" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q66" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="R66" s="24" t="s">
-        <v>591</v>
       </c>
       <c r="S66" s="25">
         <v>2.1649999544024502E-3</v>
@@ -59424,13 +59426,13 @@
         <v>54</v>
       </c>
       <c r="P67" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q67" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="R67" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q67" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="R67" s="24" t="s">
-        <v>594</v>
       </c>
       <c r="S67" s="25">
         <v>2.1649999544024502E-3</v>
@@ -59500,13 +59502,13 @@
         <v>138</v>
       </c>
       <c r="P68" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q68" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="R68" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q68" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="R68" s="24" t="s">
-        <v>252</v>
       </c>
       <c r="S68" s="25">
         <v>4.0600000647827999E-4</v>
@@ -59576,13 +59578,13 @@
         <v>138</v>
       </c>
       <c r="P69" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q69" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="R69" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="Q69" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="R69" s="29" t="s">
-        <v>595</v>
       </c>
       <c r="S69" s="27">
         <v>5.03400014713407E-3</v>
@@ -59656,13 +59658,13 @@
         <v>138</v>
       </c>
       <c r="P70" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q70" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="R70" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q70" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="R70" s="24" t="s">
-        <v>599</v>
       </c>
       <c r="S70" s="25">
         <v>0.17268900573253601</v>
@@ -59728,13 +59730,13 @@
         <v>54</v>
       </c>
       <c r="P71" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q71" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="R71" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q71" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="R71" s="24" t="s">
-        <v>600</v>
       </c>
       <c r="S71" s="25">
         <v>6.5139997750520698E-3</v>
@@ -59802,13 +59804,13 @@
         <v>54</v>
       </c>
       <c r="P72" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q72" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="R72" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q72" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="R72" s="24" t="s">
-        <v>558</v>
       </c>
       <c r="S72" s="25">
         <v>0.48772999644279502</v>
@@ -59876,13 +59878,13 @@
         <v>138</v>
       </c>
       <c r="P73" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q73" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="R73" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q73" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="R73" s="24" t="s">
-        <v>624</v>
       </c>
       <c r="S73" s="25">
         <v>0.39356601238250699</v>
@@ -59948,13 +59950,13 @@
         <v>138</v>
       </c>
       <c r="P74" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q74" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="R74" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q74" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="R74" s="24" t="s">
-        <v>625</v>
       </c>
       <c r="S74" s="25">
         <v>7.93700013309717E-3</v>
@@ -60024,13 +60026,13 @@
         <v>54</v>
       </c>
       <c r="P75" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q75" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="R75" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q75" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="R75" s="24" t="s">
-        <v>629</v>
       </c>
       <c r="S75" s="25">
         <v>0.30794298648834201</v>
@@ -60098,13 +60100,13 @@
         <v>54</v>
       </c>
       <c r="P76" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q76" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="R76" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q76" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="R76" s="24" t="s">
-        <v>632</v>
       </c>
       <c r="S76" s="25">
         <v>5.9014998376369497E-2</v>
@@ -60174,13 +60176,13 @@
         <v>54</v>
       </c>
       <c r="P77" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q77" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="R77" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q77" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="R77" s="24" t="s">
-        <v>636</v>
       </c>
       <c r="S77" s="25">
         <v>6.89399987459183E-3</v>
@@ -60246,13 +60248,13 @@
         <v>54</v>
       </c>
       <c r="P78" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q78" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="R78" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q78" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="R78" s="24" t="s">
-        <v>637</v>
       </c>
       <c r="S78" s="25">
         <v>1.11980000510812E-2</v>
@@ -60322,13 +60324,13 @@
         <v>54</v>
       </c>
       <c r="P79" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q79" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="R79" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q79" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="R79" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="S79" s="25">
         <v>2.8490000404417502E-3</v>
@@ -60398,13 +60400,13 @@
         <v>54</v>
       </c>
       <c r="P80" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q80" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="R80" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q80" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="R80" s="24" t="s">
-        <v>642</v>
       </c>
       <c r="S80" s="25">
         <v>7.8969001770019503E-2</v>
@@ -60474,13 +60476,13 @@
         <v>54</v>
       </c>
       <c r="P81" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q81" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="R81" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q81" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="R81" s="24" t="s">
-        <v>643</v>
       </c>
       <c r="S81" s="25">
         <v>3.2540000975132002E-3</v>
@@ -60548,13 +60550,13 @@
         <v>54</v>
       </c>
       <c r="P82" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q82" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="R82" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="Q82" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="R82" s="24" t="s">
-        <v>644</v>
       </c>
       <c r="S82" s="25"/>
       <c r="T82" s="25"/>
@@ -60616,13 +60618,13 @@
         <v>54</v>
       </c>
       <c r="P83" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q83" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="R83" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q83" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="R83" s="24" t="s">
-        <v>645</v>
       </c>
       <c r="S83" s="25">
         <v>3.6079999990761302E-3</v>
@@ -60692,13 +60694,13 @@
         <v>54</v>
       </c>
       <c r="P84" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q84" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="R84" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q84" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="R84" s="24" t="s">
-        <v>366</v>
       </c>
       <c r="S84" s="25">
         <v>0.40603798627853399</v>
@@ -60768,13 +60770,13 @@
         <v>54</v>
       </c>
       <c r="P85" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q85" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="R85" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q85" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="R85" s="24" t="s">
-        <v>647</v>
       </c>
       <c r="S85" s="25">
         <v>0.56604099273681596</v>
@@ -60842,13 +60844,13 @@
         <v>54</v>
       </c>
       <c r="P86" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q86" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="R86" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q86" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="R86" s="24" t="s">
-        <v>648</v>
       </c>
       <c r="S86" s="25">
         <v>8.1200001295655998E-4</v>
@@ -60918,13 +60920,13 @@
         <v>54</v>
       </c>
       <c r="P87" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q87" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="R87" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q87" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="R87" s="24" t="s">
-        <v>146</v>
       </c>
       <c r="S87" s="25">
         <v>0.395590990781784</v>
@@ -60996,13 +60998,13 @@
         <v>54</v>
       </c>
       <c r="P88" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q88" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="R88" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q88" s="24" t="s">
-        <v>650</v>
-      </c>
-      <c r="R88" s="24" t="s">
-        <v>651</v>
       </c>
       <c r="S88" s="25">
         <v>0.234420001506805</v>
@@ -61072,13 +61074,13 @@
         <v>138</v>
       </c>
       <c r="P89" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q89" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="R89" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q89" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="R89" s="24" t="s">
-        <v>655</v>
       </c>
       <c r="S89" s="25">
         <v>4.0700001409277298E-4</v>
@@ -61144,13 +61146,13 @@
         <v>138</v>
       </c>
       <c r="P90" s="24" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q90" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="R90" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q90" s="24" t="s">
-        <v>656</v>
-      </c>
-      <c r="R90" s="24" t="s">
-        <v>657</v>
       </c>
       <c r="S90" s="25">
         <v>1.0727999731898301E-2</v>
@@ -61220,13 +61222,13 @@
         <v>54</v>
       </c>
       <c r="P91" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q91" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="R91" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q91" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="R91" s="24" t="s">
-        <v>661</v>
       </c>
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
@@ -61286,13 +61288,13 @@
         <v>507</v>
       </c>
       <c r="P92" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q92" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="R92" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q92" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="R92" s="24" t="s">
-        <v>506</v>
       </c>
       <c r="S92" s="25">
         <v>0.33713799715042098</v>
@@ -61355,16 +61357,16 @@
       </c>
       <c r="N93" s="24"/>
       <c r="O93" s="24" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="P93" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q93" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="R93" s="24" t="s">
         <v>255</v>
-      </c>
-      <c r="Q93" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="R93" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="S93" s="25">
         <v>3.2289999071508598E-3</v>
@@ -61434,13 +61436,13 @@
         <v>151</v>
       </c>
       <c r="P94" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q94" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="R94" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q94" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="R94" s="24" t="s">
-        <v>607</v>
       </c>
       <c r="S94" s="25"/>
       <c r="T94" s="25"/>
@@ -61504,13 +61506,13 @@
         <v>54</v>
       </c>
       <c r="P95" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q95" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="R95" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q95" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="R95" s="24" t="s">
-        <v>611</v>
       </c>
       <c r="S95" s="25">
         <v>1.2810000218451001E-2</v>
@@ -61578,13 +61580,13 @@
         <v>138</v>
       </c>
       <c r="P96" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q96" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="R96" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q96" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="R96" s="24" t="s">
-        <v>612</v>
       </c>
       <c r="S96" s="25">
         <v>4.7933001071214697E-2</v>
@@ -61656,13 +61658,13 @@
         <v>54</v>
       </c>
       <c r="P97" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q97" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="R97" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q97" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="R97" s="24" t="s">
-        <v>616</v>
       </c>
       <c r="S97" s="25">
         <v>1.2580000329762699E-3</v>
@@ -61732,13 +61734,13 @@
         <v>54</v>
       </c>
       <c r="P98" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q98" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="R98" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="Q98" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="R98" s="24" t="s">
-        <v>620</v>
       </c>
       <c r="S98" s="25">
         <v>2.88939997553825E-2</v>
